--- a/Copia de 2019-02-28_Training sample pour l'ordonnancement_Cellule Robotisée_Rev1.xlsx
+++ b/Copia de 2019-02-28_Training sample pour l'ordonnancement_Cellule Robotisée_Rev1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pasantia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BE46CE-F178-4BBE-A8A3-ECDD922A6E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAEDFE1-C2D0-4E40-AA5B-DA66C17953C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="données" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">données!$A$1:$L$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">données!$A$1:$L$71</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t># pièce</t>
   </si>
@@ -102,9 +102,6 @@
     <t>62510</t>
   </si>
   <si>
-    <t>90911</t>
-  </si>
-  <si>
     <t>21512</t>
   </si>
   <si>
@@ -195,9 +192,6 @@
     <t>88645</t>
   </si>
   <si>
-    <t>41846</t>
-  </si>
-  <si>
     <t>62448</t>
   </si>
   <si>
@@ -217,12 +211,6 @@
   </si>
   <si>
     <t>51554</t>
-  </si>
-  <si>
-    <t>30555</t>
-  </si>
-  <si>
-    <t>68056</t>
   </si>
   <si>
     <t>58257</t>
@@ -337,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -351,6 +339,7 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L993"/>
+  <dimension ref="A1:N989"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="82" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -584,7 +573,7 @@
     <col min="8" max="21" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,7 +608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -633,27 +622,27 @@
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="5">
-        <f t="shared" ref="H2:H75" si="0">B2+C2</f>
+        <f t="shared" ref="H2:H71" si="0">B2+C2</f>
         <v>6.3179550000000004</v>
       </c>
       <c r="I2" s="6">
-        <f t="shared" ref="I2:I75" si="1">IF(AND(NOT(ISBLANK(F2)),NOT(ISBLANK(G2))),2,1)</f>
+        <f t="shared" ref="I2:I71" si="1">IF(AND(NOT(ISBLANK(F2)),NOT(ISBLANK(G2))),2,1)</f>
         <v>1</v>
       </c>
       <c r="J2" s="6">
-        <f t="shared" ref="J2:J75" si="2">IF(ISBLANK(D2),0,1)</f>
+        <f t="shared" ref="J2:J71" si="2">IF(ISBLANK(D2),0,1)</f>
         <v>0</v>
       </c>
       <c r="K2" s="6">
-        <f t="shared" ref="K2:K75" si="3">IF(ISBLANK(G2),F2,G2)</f>
+        <f t="shared" ref="K2:K71" si="3">IF(ISBLANK(G2),F2,G2)</f>
         <v>1</v>
       </c>
       <c r="L2" s="6">
-        <f t="shared" ref="L2:L75" si="4">IF(ISBLANK(G2),2,F2)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+        <f t="shared" ref="L2:L71" si="4">IF(ISBLANK(G2),2,F2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -687,7 +676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -720,8 +709,9 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -754,8 +744,9 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -790,8 +781,9 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -825,7 +817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -859,7 +851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -897,7 +889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -935,7 +927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -969,22 +961,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="4">
-        <v>18.6541</v>
-      </c>
-      <c r="C12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4">
+        <v>3.8270999999999997</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="F12" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="5">
         <f t="shared" si="0"/>
-        <v>18.6541</v>
+        <v>3.8270999999999997</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" si="1"/>
@@ -996,14 +988,14 @@
       </c>
       <c r="K12" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -1037,22 +1029,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4">
-        <v>3.8270999999999997</v>
-      </c>
-      <c r="D14" s="3"/>
+        <v>9.1341400000000004</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
       <c r="F14" s="3">
         <v>2</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="5">
         <f t="shared" si="0"/>
-        <v>3.8270999999999997</v>
+        <v>9.1341400000000004</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" si="1"/>
@@ -1060,7 +1054,7 @@
       </c>
       <c r="J14" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="6">
         <f t="shared" si="3"/>
@@ -1071,7 +1065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1107,24 +1101,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4">
-        <v>9.1341400000000004</v>
-      </c>
+      <c r="B16" s="4">
+        <v>33.323399999999999</v>
+      </c>
+      <c r="C16" s="4"/>
       <c r="D16" s="3">
         <v>1</v>
       </c>
       <c r="F16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="5">
         <f t="shared" si="0"/>
-        <v>9.1341400000000004</v>
+        <v>33.323399999999999</v>
       </c>
       <c r="I16" s="6">
         <f t="shared" si="1"/>
@@ -1136,7 +1130,7 @@
       </c>
       <c r="K16" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16" s="6">
         <f t="shared" si="4"/>
@@ -1147,20 +1141,20 @@
       <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="4">
-        <v>33.323399999999999</v>
-      </c>
-      <c r="C17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4">
+        <v>9.2915700000000001</v>
+      </c>
       <c r="D17" s="3">
         <v>1</v>
       </c>
       <c r="F17" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="5">
         <f t="shared" si="0"/>
-        <v>33.323399999999999</v>
+        <v>9.2915700000000001</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" si="1"/>
@@ -1172,20 +1166,20 @@
       </c>
       <c r="K17" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4">
-        <v>9.2915700000000001</v>
+        <v>8.1133500000000005</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -1196,7 +1190,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="5">
         <f t="shared" si="0"/>
-        <v>9.2915700000000001</v>
+        <v>8.1133500000000005</v>
       </c>
       <c r="I18" s="6">
         <f t="shared" si="1"/>
@@ -1219,20 +1213,20 @@
       <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4">
-        <v>8.1133500000000005</v>
-      </c>
+      <c r="B19" s="4">
+        <v>8.2979000000000003</v>
+      </c>
+      <c r="C19" s="4"/>
       <c r="D19" s="3">
         <v>1</v>
       </c>
       <c r="F19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="5">
         <f t="shared" si="0"/>
-        <v>8.1133500000000005</v>
+        <v>8.2979000000000003</v>
       </c>
       <c r="I19" s="6">
         <f t="shared" si="1"/>
@@ -1244,7 +1238,7 @@
       </c>
       <c r="K19" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19" s="6">
         <f t="shared" si="4"/>
@@ -1255,20 +1249,20 @@
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="4">
-        <v>8.2979000000000003</v>
-      </c>
-      <c r="C20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4">
+        <v>3.3992800000000001</v>
+      </c>
       <c r="D20" s="3">
         <v>1</v>
       </c>
       <c r="F20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="5">
         <f t="shared" si="0"/>
-        <v>8.2979000000000003</v>
+        <v>3.3992800000000001</v>
       </c>
       <c r="I20" s="6">
         <f t="shared" si="1"/>
@@ -1280,7 +1274,7 @@
       </c>
       <c r="K20" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20" s="6">
         <f t="shared" si="4"/>
@@ -1291,20 +1285,20 @@
       <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4">
-        <v>3.3992800000000001</v>
-      </c>
+      <c r="B21" s="4">
+        <v>8.2979000000000003</v>
+      </c>
+      <c r="C21" s="4"/>
       <c r="D21" s="3">
         <v>1</v>
       </c>
       <c r="F21" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="5">
         <f t="shared" si="0"/>
-        <v>3.3992800000000001</v>
+        <v>8.2979000000000003</v>
       </c>
       <c r="I21" s="6">
         <f t="shared" si="1"/>
@@ -1316,7 +1310,7 @@
       </c>
       <c r="K21" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21" s="6">
         <f t="shared" si="4"/>
@@ -1327,20 +1321,20 @@
       <c r="A22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="4">
-        <v>8.2979000000000003</v>
-      </c>
-      <c r="C22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4">
+        <v>5.21835</v>
+      </c>
       <c r="D22" s="3">
         <v>1</v>
       </c>
       <c r="F22" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="5">
         <f t="shared" si="0"/>
-        <v>8.2979000000000003</v>
+        <v>5.21835</v>
       </c>
       <c r="I22" s="6">
         <f t="shared" si="1"/>
@@ -1352,7 +1346,7 @@
       </c>
       <c r="K22" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22" s="6">
         <f t="shared" si="4"/>
@@ -1365,7 +1359,7 @@
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4">
-        <v>5.21835</v>
+        <v>8.1133500000000005</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -1376,7 +1370,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="5">
         <f t="shared" si="0"/>
-        <v>5.21835</v>
+        <v>8.1133500000000005</v>
       </c>
       <c r="I23" s="6">
         <f t="shared" si="1"/>
@@ -1399,20 +1393,20 @@
       <c r="A24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4">
-        <v>8.1133500000000005</v>
-      </c>
+      <c r="B24" s="4">
+        <v>33.323399999999999</v>
+      </c>
+      <c r="C24" s="4"/>
       <c r="D24" s="3">
         <v>1</v>
       </c>
       <c r="F24" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="5">
         <f t="shared" si="0"/>
-        <v>8.1133500000000005</v>
+        <v>33.323399999999999</v>
       </c>
       <c r="I24" s="6">
         <f t="shared" si="1"/>
@@ -1424,7 +1418,7 @@
       </c>
       <c r="K24" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24" s="6">
         <f t="shared" si="4"/>
@@ -1435,20 +1429,20 @@
       <c r="A25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="4">
-        <v>33.323399999999999</v>
-      </c>
-      <c r="C25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4">
+        <v>3.3992800000000001</v>
+      </c>
       <c r="D25" s="3">
         <v>1</v>
       </c>
       <c r="F25" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="5">
         <f t="shared" si="0"/>
-        <v>33.323399999999999</v>
+        <v>3.3992800000000001</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" si="1"/>
@@ -1460,7 +1454,7 @@
       </c>
       <c r="K25" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25" s="6">
         <f t="shared" si="4"/>
@@ -1471,20 +1465,18 @@
       <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4">
-        <v>3.3992800000000001</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
+      <c r="B26" s="4">
+        <v>3.4674999999999998</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="3"/>
       <c r="F26" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="5">
         <f t="shared" si="0"/>
-        <v>3.3992800000000001</v>
+        <v>3.4674999999999998</v>
       </c>
       <c r="I26" s="6">
         <f t="shared" si="1"/>
@@ -1492,11 +1484,11 @@
       </c>
       <c r="J26" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26" s="6">
         <f t="shared" si="4"/>
@@ -1507,18 +1499,18 @@
       <c r="A27" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="4">
-        <v>3.4674999999999998</v>
-      </c>
-      <c r="C27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4">
+        <v>2.7459750000000001</v>
+      </c>
       <c r="D27" s="3"/>
       <c r="F27" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="5">
         <f t="shared" si="0"/>
-        <v>3.4674999999999998</v>
+        <v>2.7459750000000001</v>
       </c>
       <c r="I27" s="6">
         <f t="shared" si="1"/>
@@ -1530,7 +1522,7 @@
       </c>
       <c r="K27" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27" s="6">
         <f t="shared" si="4"/>
@@ -1543,16 +1535,18 @@
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4">
-        <v>2.7459750000000001</v>
-      </c>
-      <c r="D28" s="3"/>
+        <v>5.7393899999999993</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
       <c r="F28" s="3">
         <v>2</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="5">
         <f t="shared" si="0"/>
-        <v>2.7459750000000001</v>
+        <v>5.7393899999999993</v>
       </c>
       <c r="I28" s="6">
         <f t="shared" si="1"/>
@@ -1560,7 +1554,7 @@
       </c>
       <c r="J28" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="6">
         <f t="shared" si="3"/>
@@ -1577,18 +1571,16 @@
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4">
-        <v>5.7393899999999993</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
+        <v>2.9125000000000001</v>
+      </c>
+      <c r="D29" s="3"/>
       <c r="F29" s="3">
         <v>2</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="5">
         <f t="shared" si="0"/>
-        <v>5.7393899999999993</v>
+        <v>2.9125000000000001</v>
       </c>
       <c r="I29" s="6">
         <f t="shared" si="1"/>
@@ -1596,7 +1588,7 @@
       </c>
       <c r="J29" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="6">
         <f t="shared" si="3"/>
@@ -1613,7 +1605,7 @@
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4">
-        <v>2.9125000000000001</v>
+        <v>2.7459750000000001</v>
       </c>
       <c r="D30" s="3"/>
       <c r="F30" s="3">
@@ -1622,7 +1614,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="5">
         <f t="shared" si="0"/>
-        <v>2.9125000000000001</v>
+        <v>2.7459750000000001</v>
       </c>
       <c r="I30" s="6">
         <f t="shared" si="1"/>
@@ -1647,16 +1639,18 @@
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4">
-        <v>2.7459750000000001</v>
-      </c>
-      <c r="D31" s="3"/>
+        <v>2.9125000000000001</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
       <c r="F31" s="3">
         <v>2</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="5">
         <f t="shared" si="0"/>
-        <v>2.7459750000000001</v>
+        <v>2.9125000000000001</v>
       </c>
       <c r="I31" s="6">
         <f t="shared" si="1"/>
@@ -1664,7 +1658,7 @@
       </c>
       <c r="J31" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="6">
         <f t="shared" si="3"/>
@@ -1681,18 +1675,16 @@
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4">
-        <v>2.9125000000000001</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
+        <v>6.6361999999999997</v>
+      </c>
+      <c r="D32" s="3"/>
       <c r="F32" s="3">
         <v>2</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="5">
         <f t="shared" si="0"/>
-        <v>2.9125000000000001</v>
+        <v>6.6361999999999997</v>
       </c>
       <c r="I32" s="6">
         <f t="shared" si="1"/>
@@ -1700,7 +1692,7 @@
       </c>
       <c r="J32" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="6">
         <f t="shared" si="3"/>
@@ -1717,16 +1709,18 @@
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4">
-        <v>6.6361999999999997</v>
-      </c>
-      <c r="D33" s="3"/>
+        <v>7.7179000000000002</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
       <c r="F33" s="3">
         <v>2</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="5">
         <f t="shared" si="0"/>
-        <v>6.6361999999999997</v>
+        <v>7.7179000000000002</v>
       </c>
       <c r="I33" s="6">
         <f t="shared" si="1"/>
@@ -1734,7 +1728,7 @@
       </c>
       <c r="J33" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="6">
         <f t="shared" si="3"/>
@@ -1751,7 +1745,7 @@
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4">
-        <v>7.7179000000000002</v>
+        <v>6.8976499999999996</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -1762,7 +1756,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="5">
         <f t="shared" si="0"/>
-        <v>7.7179000000000002</v>
+        <v>6.8976499999999996</v>
       </c>
       <c r="I34" s="6">
         <f t="shared" si="1"/>
@@ -1787,7 +1781,7 @@
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4">
-        <v>6.8976499999999996</v>
+        <v>7.7179000000000002</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
@@ -1798,7 +1792,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="5">
         <f t="shared" si="0"/>
-        <v>6.8976499999999996</v>
+        <v>7.7179000000000002</v>
       </c>
       <c r="I35" s="6">
         <f t="shared" si="1"/>
@@ -1823,18 +1817,16 @@
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4">
-        <v>7.7179000000000002</v>
-      </c>
-      <c r="D36" s="3">
-        <v>1</v>
-      </c>
+        <v>6.6361999999999997</v>
+      </c>
+      <c r="D36" s="3"/>
       <c r="F36" s="3">
         <v>2</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="5">
         <f t="shared" si="0"/>
-        <v>7.7179000000000002</v>
+        <v>6.6361999999999997</v>
       </c>
       <c r="I36" s="6">
         <f t="shared" si="1"/>
@@ -1842,7 +1834,7 @@
       </c>
       <c r="J36" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="6">
         <f t="shared" si="3"/>
@@ -1859,16 +1851,18 @@
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4">
-        <v>6.6361999999999997</v>
-      </c>
-      <c r="D37" s="3"/>
+        <v>9.6173500000000001</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
       <c r="F37" s="3">
         <v>2</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="5">
         <f t="shared" si="0"/>
-        <v>6.6361999999999997</v>
+        <v>9.6173500000000001</v>
       </c>
       <c r="I37" s="6">
         <f t="shared" si="1"/>
@@ -1876,7 +1870,7 @@
       </c>
       <c r="J37" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="6">
         <f t="shared" si="3"/>
@@ -1929,7 +1923,7 @@
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4">
-        <v>9.6173500000000001</v>
+        <v>6.8976499999999996</v>
       </c>
       <c r="D39" s="3">
         <v>1</v>
@@ -1940,7 +1934,7 @@
       <c r="G39" s="3"/>
       <c r="H39" s="5">
         <f t="shared" si="0"/>
-        <v>9.6173500000000001</v>
+        <v>6.8976499999999996</v>
       </c>
       <c r="I39" s="6">
         <f t="shared" si="1"/>
@@ -1963,20 +1957,20 @@
       <c r="A40" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4">
-        <v>6.8976499999999996</v>
-      </c>
+      <c r="B40" s="4">
+        <v>17.530999999999999</v>
+      </c>
+      <c r="C40" s="4"/>
       <c r="D40" s="3">
         <v>1</v>
       </c>
       <c r="F40" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="5">
         <f t="shared" si="0"/>
-        <v>6.8976499999999996</v>
+        <v>17.530999999999999</v>
       </c>
       <c r="I40" s="6">
         <f t="shared" si="1"/>
@@ -1988,7 +1982,7 @@
       </c>
       <c r="K40" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L40" s="6">
         <f t="shared" si="4"/>
@@ -2000,7 +1994,7 @@
         <v>50</v>
       </c>
       <c r="B41" s="4">
-        <v>17.530999999999999</v>
+        <v>32.674809999999994</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="3">
@@ -2012,7 +2006,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="5">
         <f t="shared" si="0"/>
-        <v>17.530999999999999</v>
+        <v>32.674809999999994</v>
       </c>
       <c r="I41" s="6">
         <f t="shared" si="1"/>
@@ -2035,20 +2029,20 @@
       <c r="A42" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="4">
-        <v>32.674809999999994</v>
-      </c>
-      <c r="C42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4">
+        <v>1.9446000000000001</v>
+      </c>
       <c r="D42" s="3">
         <v>1</v>
       </c>
       <c r="F42" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="5">
         <f t="shared" si="0"/>
-        <v>32.674809999999994</v>
+        <v>1.9446000000000001</v>
       </c>
       <c r="I42" s="6">
         <f t="shared" si="1"/>
@@ -2060,7 +2054,7 @@
       </c>
       <c r="K42" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L42" s="6">
         <f t="shared" si="4"/>
@@ -2072,19 +2066,17 @@
         <v>52</v>
       </c>
       <c r="B43" s="4">
-        <v>32.674809999999994</v>
+        <v>2.1283750000000001</v>
       </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="3">
-        <v>1</v>
-      </c>
+      <c r="D43" s="3"/>
       <c r="F43" s="3">
         <v>1</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="5">
         <f t="shared" si="0"/>
-        <v>32.674809999999994</v>
+        <v>2.1283750000000001</v>
       </c>
       <c r="I43" s="6">
         <f t="shared" si="1"/>
@@ -2092,7 +2084,7 @@
       </c>
       <c r="J43" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="6">
         <f t="shared" si="3"/>
@@ -2107,28 +2099,30 @@
       <c r="A44" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="4"/>
+      <c r="B44" s="4">
+        <v>8.8796999999999997</v>
+      </c>
       <c r="C44" s="4">
-        <v>1.9446000000000001</v>
-      </c>
-      <c r="D44" s="3">
-        <v>1</v>
-      </c>
+        <v>7.5849000000000002</v>
+      </c>
+      <c r="D44" s="3"/>
       <c r="F44" s="3">
-        <v>2</v>
-      </c>
-      <c r="G44" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="G44" s="3">
+        <v>2</v>
+      </c>
       <c r="H44" s="5">
         <f t="shared" si="0"/>
-        <v>1.9446000000000001</v>
+        <v>16.464600000000001</v>
       </c>
       <c r="I44" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="6">
         <f t="shared" si="3"/>
@@ -2136,7 +2130,7 @@
       </c>
       <c r="L44" s="6">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2144,7 +2138,7 @@
         <v>54</v>
       </c>
       <c r="B45" s="4">
-        <v>2.1283750000000001</v>
+        <v>5.4827500000000002</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="3"/>
@@ -2154,7 +2148,7 @@
       <c r="G45" s="3"/>
       <c r="H45" s="5">
         <f t="shared" si="0"/>
-        <v>2.1283750000000001</v>
+        <v>5.4827500000000002</v>
       </c>
       <c r="I45" s="6">
         <f t="shared" si="1"/>
@@ -2178,25 +2172,21 @@
         <v>55</v>
       </c>
       <c r="B46" s="4">
-        <v>8.8796999999999997</v>
-      </c>
-      <c r="C46" s="4">
-        <v>7.5849000000000002</v>
-      </c>
+        <v>24.641690000000001</v>
+      </c>
+      <c r="C46" s="4"/>
       <c r="D46" s="3"/>
       <c r="F46" s="3">
         <v>1</v>
       </c>
-      <c r="G46" s="3">
-        <v>2</v>
-      </c>
+      <c r="G46" s="3"/>
       <c r="H46" s="5">
         <f t="shared" si="0"/>
-        <v>16.464600000000001</v>
+        <v>24.641690000000001</v>
       </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" s="6">
         <f t="shared" si="2"/>
@@ -2204,11 +2194,11 @@
       </c>
       <c r="K46" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L46" s="6">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2216,7 +2206,7 @@
         <v>56</v>
       </c>
       <c r="B47" s="4">
-        <v>5.4827500000000002</v>
+        <v>26.595600000000001</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="3"/>
@@ -2226,7 +2216,7 @@
       <c r="G47" s="3"/>
       <c r="H47" s="5">
         <f t="shared" si="0"/>
-        <v>5.4827500000000002</v>
+        <v>26.595600000000001</v>
       </c>
       <c r="I47" s="6">
         <f t="shared" si="1"/>
@@ -2250,7 +2240,7 @@
         <v>57</v>
       </c>
       <c r="B48" s="4">
-        <v>24.641690000000001</v>
+        <v>28.8416</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="3"/>
@@ -2260,7 +2250,7 @@
       <c r="G48" s="3"/>
       <c r="H48" s="5">
         <f t="shared" si="0"/>
-        <v>24.641690000000001</v>
+        <v>28.8416</v>
       </c>
       <c r="I48" s="6">
         <f t="shared" si="1"/>
@@ -2284,7 +2274,7 @@
         <v>58</v>
       </c>
       <c r="B49" s="4">
-        <v>26.595600000000001</v>
+        <v>2.7665500000000001</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="3"/>
@@ -2294,7 +2284,7 @@
       <c r="G49" s="3"/>
       <c r="H49" s="5">
         <f t="shared" si="0"/>
-        <v>26.595600000000001</v>
+        <v>2.7665500000000001</v>
       </c>
       <c r="I49" s="6">
         <f t="shared" si="1"/>
@@ -2318,7 +2308,7 @@
         <v>59</v>
       </c>
       <c r="B50" s="4">
-        <v>28.8416</v>
+        <v>26.595600000000001</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="3"/>
@@ -2328,7 +2318,7 @@
       <c r="G50" s="3"/>
       <c r="H50" s="5">
         <f t="shared" si="0"/>
-        <v>28.8416</v>
+        <v>26.595600000000001</v>
       </c>
       <c r="I50" s="6">
         <f t="shared" si="1"/>
@@ -2351,18 +2341,18 @@
       <c r="A51" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="4">
-        <v>26.826000000000001</v>
-      </c>
-      <c r="C51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4">
+        <v>0.97684000000000004</v>
+      </c>
       <c r="D51" s="3"/>
       <c r="F51" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="5">
         <f t="shared" si="0"/>
-        <v>26.826000000000001</v>
+        <v>0.97684000000000004</v>
       </c>
       <c r="I51" s="6">
         <f t="shared" si="1"/>
@@ -2374,7 +2364,7 @@
       </c>
       <c r="K51" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L51" s="6">
         <f t="shared" si="4"/>
@@ -2386,21 +2376,25 @@
         <v>61</v>
       </c>
       <c r="B52" s="4">
-        <v>26.826000000000001</v>
-      </c>
-      <c r="C52" s="4"/>
+        <v>1.8894500000000001</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0.76963999999999999</v>
+      </c>
       <c r="D52" s="3"/>
       <c r="F52" s="3">
-        <v>1</v>
-      </c>
-      <c r="G52" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1</v>
+      </c>
       <c r="H52" s="5">
         <f t="shared" si="0"/>
-        <v>26.826000000000001</v>
+        <v>2.65909</v>
       </c>
       <c r="I52" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J52" s="6">
         <f t="shared" si="2"/>
@@ -2419,18 +2413,18 @@
       <c r="A53" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B53" s="4">
-        <v>2.7665500000000001</v>
-      </c>
-      <c r="C53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4">
+        <v>2.9621200000000001</v>
+      </c>
       <c r="D53" s="3"/>
       <c r="F53" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="5">
         <f t="shared" si="0"/>
-        <v>2.7665500000000001</v>
+        <v>2.9621200000000001</v>
       </c>
       <c r="I53" s="6">
         <f t="shared" si="1"/>
@@ -2442,7 +2436,7 @@
       </c>
       <c r="K53" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L53" s="6">
         <f t="shared" si="4"/>
@@ -2454,21 +2448,25 @@
         <v>63</v>
       </c>
       <c r="B54" s="4">
-        <v>26.595600000000001</v>
-      </c>
-      <c r="C54" s="4"/>
+        <v>11.119145</v>
+      </c>
+      <c r="C54" s="4">
+        <v>9.3242449999999995</v>
+      </c>
       <c r="D54" s="3"/>
       <c r="F54" s="3">
         <v>1</v>
       </c>
-      <c r="G54" s="3"/>
+      <c r="G54" s="3">
+        <v>2</v>
+      </c>
       <c r="H54" s="5">
         <f t="shared" si="0"/>
-        <v>26.595600000000001</v>
+        <v>20.443390000000001</v>
       </c>
       <c r="I54" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54" s="6">
         <f t="shared" si="2"/>
@@ -2476,33 +2474,37 @@
       </c>
       <c r="K54" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L54" s="6">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="4"/>
+      <c r="B55" s="4">
+        <v>11.119145</v>
+      </c>
       <c r="C55" s="4">
-        <v>0.97684000000000004</v>
+        <v>9.3242449999999995</v>
       </c>
       <c r="D55" s="3"/>
       <c r="F55" s="3">
-        <v>2</v>
-      </c>
-      <c r="G55" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="G55" s="3">
+        <v>2</v>
+      </c>
       <c r="H55" s="5">
         <f t="shared" si="0"/>
-        <v>0.97684000000000004</v>
+        <v>20.443390000000001</v>
       </c>
       <c r="I55" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J55" s="6">
         <f t="shared" si="2"/>
@@ -2514,33 +2516,29 @@
       </c>
       <c r="L55" s="6">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B56" s="4">
-        <v>1.8894500000000001</v>
-      </c>
+      <c r="B56" s="4"/>
       <c r="C56" s="4">
-        <v>0.76963999999999999</v>
+        <v>7.7475549999999993</v>
       </c>
       <c r="D56" s="3"/>
       <c r="F56" s="3">
         <v>2</v>
       </c>
-      <c r="G56" s="3">
-        <v>1</v>
-      </c>
+      <c r="G56" s="3"/>
       <c r="H56" s="5">
         <f t="shared" si="0"/>
-        <v>2.65909</v>
+        <v>7.7475549999999993</v>
       </c>
       <c r="I56" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" s="6">
         <f t="shared" si="2"/>
@@ -2548,7 +2546,7 @@
       </c>
       <c r="K56" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L56" s="6">
         <f t="shared" si="4"/>
@@ -2559,22 +2557,26 @@
       <c r="A57" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="4"/>
+      <c r="B57" s="4">
+        <v>2.3997299999999999</v>
+      </c>
       <c r="C57" s="4">
-        <v>2.9621200000000001</v>
+        <v>4.4859499999999999</v>
       </c>
       <c r="D57" s="3"/>
       <c r="F57" s="3">
-        <v>2</v>
-      </c>
-      <c r="G57" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="G57" s="3">
+        <v>2</v>
+      </c>
       <c r="H57" s="5">
         <f t="shared" si="0"/>
-        <v>2.9621200000000001</v>
+        <v>6.8856799999999998</v>
       </c>
       <c r="I57" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J57" s="6">
         <f t="shared" si="2"/>
@@ -2586,7 +2588,7 @@
       </c>
       <c r="L57" s="6">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2594,37 +2596,35 @@
         <v>67</v>
       </c>
       <c r="B58" s="4">
-        <v>11.119145</v>
-      </c>
-      <c r="C58" s="4">
-        <v>9.3242449999999995</v>
-      </c>
-      <c r="D58" s="3"/>
+        <v>14.928884999999999</v>
+      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="3">
+        <v>1</v>
+      </c>
       <c r="F58" s="3">
         <v>1</v>
       </c>
-      <c r="G58" s="3">
-        <v>2</v>
-      </c>
+      <c r="G58" s="3"/>
       <c r="H58" s="5">
         <f t="shared" si="0"/>
-        <v>20.443390000000001</v>
+        <v>14.928884999999999</v>
       </c>
       <c r="I58" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J58" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L58" s="6">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2632,37 +2632,35 @@
         <v>68</v>
       </c>
       <c r="B59" s="4">
-        <v>11.119145</v>
-      </c>
-      <c r="C59" s="4">
-        <v>9.3242449999999995</v>
-      </c>
-      <c r="D59" s="3"/>
+        <v>9.4292499999999997</v>
+      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="3">
+        <v>1</v>
+      </c>
       <c r="F59" s="3">
         <v>1</v>
       </c>
-      <c r="G59" s="3">
-        <v>2</v>
-      </c>
+      <c r="G59" s="3"/>
       <c r="H59" s="5">
         <f t="shared" si="0"/>
-        <v>20.443390000000001</v>
+        <v>9.4292499999999997</v>
       </c>
       <c r="I59" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J59" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L59" s="6">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2671,7 +2669,7 @@
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4">
-        <v>7.7475549999999993</v>
+        <v>14.712494999999999</v>
       </c>
       <c r="D60" s="3"/>
       <c r="F60" s="3">
@@ -2680,7 +2678,7 @@
       <c r="G60" s="3"/>
       <c r="H60" s="5">
         <f t="shared" si="0"/>
-        <v>7.7475549999999993</v>
+        <v>14.712494999999999</v>
       </c>
       <c r="I60" s="6">
         <f t="shared" si="1"/>
@@ -2703,26 +2701,22 @@
       <c r="A61" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B61" s="4">
-        <v>2.3997299999999999</v>
-      </c>
+      <c r="B61" s="4"/>
       <c r="C61" s="4">
-        <v>4.4859499999999999</v>
+        <v>1.9446000000000001</v>
       </c>
       <c r="D61" s="3"/>
       <c r="F61" s="3">
-        <v>1</v>
-      </c>
-      <c r="G61" s="3">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G61" s="3"/>
       <c r="H61" s="5">
         <f t="shared" si="0"/>
-        <v>6.8856799999999998</v>
+        <v>1.9446000000000001</v>
       </c>
       <c r="I61" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" s="6">
         <f t="shared" si="2"/>
@@ -2734,7 +2728,7 @@
       </c>
       <c r="L61" s="6">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2742,19 +2736,17 @@
         <v>71</v>
       </c>
       <c r="B62" s="4">
-        <v>14.928884999999999</v>
+        <v>8.7520000000000007</v>
       </c>
       <c r="C62" s="4"/>
-      <c r="D62" s="3">
-        <v>1</v>
-      </c>
+      <c r="D62" s="3"/>
       <c r="F62" s="3">
         <v>1</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="5">
         <f t="shared" si="0"/>
-        <v>14.928884999999999</v>
+        <v>8.7520000000000007</v>
       </c>
       <c r="I62" s="6">
         <f t="shared" si="1"/>
@@ -2762,7 +2754,7 @@
       </c>
       <c r="J62" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" s="6">
         <f t="shared" si="3"/>
@@ -2778,19 +2770,17 @@
         <v>72</v>
       </c>
       <c r="B63" s="4">
-        <v>9.4292499999999997</v>
+        <v>4.82843</v>
       </c>
       <c r="C63" s="4"/>
-      <c r="D63" s="3">
-        <v>1</v>
-      </c>
+      <c r="D63" s="3"/>
       <c r="F63" s="3">
         <v>1</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="5">
         <f t="shared" si="0"/>
-        <v>9.4292499999999997</v>
+        <v>4.82843</v>
       </c>
       <c r="I63" s="6">
         <f t="shared" si="1"/>
@@ -2798,7 +2788,7 @@
       </c>
       <c r="J63" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" s="6">
         <f t="shared" si="3"/>
@@ -2813,18 +2803,18 @@
       <c r="A64" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4">
-        <v>14.712494999999999</v>
-      </c>
+      <c r="B64" s="4">
+        <v>4.5644499999999999</v>
+      </c>
+      <c r="C64" s="4"/>
       <c r="D64" s="3"/>
       <c r="F64" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="5">
         <f t="shared" si="0"/>
-        <v>14.712494999999999</v>
+        <v>4.5644499999999999</v>
       </c>
       <c r="I64" s="6">
         <f t="shared" si="1"/>
@@ -2836,7 +2826,7 @@
       </c>
       <c r="K64" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L64" s="6">
         <f t="shared" si="4"/>
@@ -2847,22 +2837,26 @@
       <c r="A65" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B65" s="4"/>
+      <c r="B65" s="4">
+        <v>1.5787599999999999</v>
+      </c>
       <c r="C65" s="4">
-        <v>1.9446000000000001</v>
+        <v>15.547134999999999</v>
       </c>
       <c r="D65" s="3"/>
       <c r="F65" s="3">
         <v>2</v>
       </c>
-      <c r="G65" s="3"/>
+      <c r="G65" s="3">
+        <v>1</v>
+      </c>
       <c r="H65" s="5">
         <f t="shared" si="0"/>
-        <v>1.9446000000000001</v>
+        <v>17.125895</v>
       </c>
       <c r="I65" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J65" s="6">
         <f t="shared" si="2"/>
@@ -2870,7 +2864,7 @@
       </c>
       <c r="K65" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L65" s="6">
         <f t="shared" si="4"/>
@@ -2882,7 +2876,7 @@
         <v>75</v>
       </c>
       <c r="B66" s="4">
-        <v>8.7520000000000007</v>
+        <v>2.1283750000000001</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="3"/>
@@ -2892,7 +2886,7 @@
       <c r="G66" s="3"/>
       <c r="H66" s="5">
         <f t="shared" si="0"/>
-        <v>8.7520000000000007</v>
+        <v>2.1283750000000001</v>
       </c>
       <c r="I66" s="6">
         <f t="shared" si="1"/>
@@ -2916,7 +2910,7 @@
         <v>76</v>
       </c>
       <c r="B67" s="4">
-        <v>4.82843</v>
+        <v>0.93293000000000004</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="3"/>
@@ -2926,7 +2920,7 @@
       <c r="G67" s="3"/>
       <c r="H67" s="5">
         <f t="shared" si="0"/>
-        <v>4.82843</v>
+        <v>0.93293000000000004</v>
       </c>
       <c r="I67" s="6">
         <f t="shared" si="1"/>
@@ -2950,7 +2944,7 @@
         <v>77</v>
       </c>
       <c r="B68" s="4">
-        <v>4.5644499999999999</v>
+        <v>1.8118000000000001</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="3"/>
@@ -2960,7 +2954,7 @@
       <c r="G68" s="3"/>
       <c r="H68" s="5">
         <f t="shared" si="0"/>
-        <v>4.5644499999999999</v>
+        <v>1.8118000000000001</v>
       </c>
       <c r="I68" s="6">
         <f t="shared" si="1"/>
@@ -2984,25 +2978,21 @@
         <v>78</v>
       </c>
       <c r="B69" s="4">
-        <v>1.5787599999999999</v>
-      </c>
-      <c r="C69" s="4">
-        <v>15.547134999999999</v>
-      </c>
+        <v>1.8118000000000001</v>
+      </c>
+      <c r="C69" s="4"/>
       <c r="D69" s="3"/>
       <c r="F69" s="3">
-        <v>2</v>
-      </c>
-      <c r="G69" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G69" s="3"/>
       <c r="H69" s="5">
         <f t="shared" si="0"/>
-        <v>17.125895</v>
+        <v>1.8118000000000001</v>
       </c>
       <c r="I69" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" s="6">
         <f t="shared" si="2"/>
@@ -3022,33 +3012,39 @@
         <v>79</v>
       </c>
       <c r="B70" s="4">
-        <v>2.1283750000000001</v>
-      </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="3"/>
+        <v>6.9123549999999998</v>
+      </c>
+      <c r="C70" s="4">
+        <v>5.79</v>
+      </c>
+      <c r="D70" s="3">
+        <v>1</v>
+      </c>
       <c r="F70" s="3">
         <v>1</v>
       </c>
-      <c r="G70" s="3"/>
+      <c r="G70" s="3">
+        <v>2</v>
+      </c>
       <c r="H70" s="5">
         <f t="shared" si="0"/>
-        <v>2.1283750000000001</v>
+        <v>12.702355000000001</v>
       </c>
       <c r="I70" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L70" s="6">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3056,182 +3052,56 @@
         <v>80</v>
       </c>
       <c r="B71" s="4">
-        <v>0.93293000000000004</v>
-      </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="3"/>
+        <v>6.9123549999999998</v>
+      </c>
+      <c r="C71" s="4">
+        <v>5.79</v>
+      </c>
+      <c r="D71" s="3">
+        <v>1</v>
+      </c>
       <c r="F71" s="3">
         <v>1</v>
       </c>
-      <c r="G71" s="3"/>
+      <c r="G71" s="3">
+        <v>2</v>
+      </c>
       <c r="H71" s="5">
         <f t="shared" si="0"/>
-        <v>0.93293000000000004</v>
+        <v>12.702355000000001</v>
       </c>
       <c r="I71" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L71" s="6">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B72" s="4">
-        <v>1.8118000000000001</v>
-      </c>
-      <c r="C72" s="4"/>
-      <c r="D72" s="3"/>
-      <c r="F72" s="3">
-        <v>1</v>
-      </c>
+      <c r="F72" s="3"/>
       <c r="G72" s="3"/>
-      <c r="H72" s="5">
-        <f t="shared" si="0"/>
-        <v>1.8118000000000001</v>
-      </c>
-      <c r="I72" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J72" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K72" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L72" s="6">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
     </row>
     <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B73" s="4">
-        <v>1.8118000000000001</v>
-      </c>
-      <c r="C73" s="4"/>
-      <c r="D73" s="3"/>
-      <c r="F73" s="3">
-        <v>1</v>
-      </c>
+      <c r="F73" s="3"/>
       <c r="G73" s="3"/>
-      <c r="H73" s="5">
-        <f t="shared" si="0"/>
-        <v>1.8118000000000001</v>
-      </c>
-      <c r="I73" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J73" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K73" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L73" s="6">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
     </row>
     <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B74" s="4">
-        <v>6.9123549999999998</v>
-      </c>
-      <c r="C74" s="4">
-        <v>5.79</v>
-      </c>
-      <c r="D74" s="3">
-        <v>1</v>
-      </c>
-      <c r="F74" s="3">
-        <v>1</v>
-      </c>
-      <c r="G74" s="3">
-        <v>2</v>
-      </c>
-      <c r="H74" s="5">
-        <f t="shared" si="0"/>
-        <v>12.702355000000001</v>
-      </c>
-      <c r="I74" s="6">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J74" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K74" s="6">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L74" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
     </row>
     <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B75" s="4">
-        <v>6.9123549999999998</v>
-      </c>
-      <c r="C75" s="4">
-        <v>5.79</v>
-      </c>
-      <c r="D75" s="3">
-        <v>1</v>
-      </c>
-      <c r="F75" s="3">
-        <v>1</v>
-      </c>
-      <c r="G75" s="3">
-        <v>2</v>
-      </c>
-      <c r="H75" s="5">
-        <f t="shared" si="0"/>
-        <v>12.702355000000001</v>
-      </c>
-      <c r="I75" s="6">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J75" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K75" s="6">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L75" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
     </row>
     <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F76" s="3"/>
@@ -6889,24 +6759,8 @@
       <c r="F989" s="3"/>
       <c r="G989" s="3"/>
     </row>
-    <row r="990" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F990" s="3"/>
-      <c r="G990" s="3"/>
-    </row>
-    <row r="991" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F991" s="3"/>
-      <c r="G991" s="3"/>
-    </row>
-    <row r="992" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F992" s="3"/>
-      <c r="G992" s="3"/>
-    </row>
-    <row r="993" spans="6:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F993" s="3"/>
-      <c r="G993" s="3"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:L75" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L71" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
